--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/CREDITOS  4 CARNES  J U L I O      2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/CREDITOS  4 CARNES  J U L I O      2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 07  JULIO  2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 07  JULIO  2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="10725" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="10725" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="74">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -1208,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,12 +1744,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1791,6 +1785,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2496,13 +2493,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2549,13 +2546,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2986,25 +2983,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -5304,12 +5301,12 @@
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="221">
+      <c r="E89" s="219">
         <f>E85-G85</f>
         <v>0</v>
       </c>
-      <c r="F89" s="222"/>
-      <c r="G89" s="223"/>
+      <c r="F89" s="220"/>
+      <c r="G89" s="221"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5325,11 +5322,11 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="224" t="s">
+      <c r="E91" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="224"/>
-      <c r="G91" s="224"/>
+      <c r="F91" s="222"/>
+      <c r="G91" s="222"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5467,10 +5464,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="228"/>
+      <c r="C1" s="226"/>
       <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5490,10 +5487,10 @@
       <c r="F2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="229" t="s">
+      <c r="G2" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65">
@@ -5759,25 +5756,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -8150,12 +8147,12 @@
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="221">
+      <c r="E95" s="219">
         <f>E91-G91</f>
         <v>0</v>
       </c>
-      <c r="F95" s="222"/>
-      <c r="G95" s="223"/>
+      <c r="F95" s="220"/>
+      <c r="G95" s="221"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -8171,11 +8168,11 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="224" t="s">
+      <c r="E97" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="224"/>
-      <c r="G97" s="224"/>
+      <c r="F97" s="222"/>
+      <c r="G97" s="222"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -8318,25 +8315,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -11493,12 +11490,12 @@
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="221">
+      <c r="E124" s="219">
         <f>E120-G120</f>
         <v>0</v>
       </c>
-      <c r="F124" s="222"/>
-      <c r="G124" s="223"/>
+      <c r="F124" s="220"/>
+      <c r="G124" s="221"/>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -11514,11 +11511,11 @@
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="224" t="s">
+      <c r="E126" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="224"/>
-      <c r="G126" s="224"/>
+      <c r="F126" s="222"/>
+      <c r="G126" s="222"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -11659,25 +11656,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -14122,12 +14119,12 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="221">
+      <c r="E97" s="219">
         <f>E93-G93</f>
         <v>0</v>
       </c>
-      <c r="F97" s="222"/>
-      <c r="G97" s="223"/>
+      <c r="F97" s="220"/>
+      <c r="G97" s="221"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -14143,11 +14140,11 @@
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="224" t="s">
+      <c r="E99" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="224"/>
-      <c r="G99" s="224"/>
+      <c r="F99" s="222"/>
+      <c r="G99" s="222"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -14296,25 +14293,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -17448,12 +17445,12 @@
       <c r="B125" s="165"/>
       <c r="C125" s="36"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="221">
+      <c r="E125" s="219">
         <f>E121-G121</f>
         <v>0</v>
       </c>
-      <c r="F125" s="222"/>
-      <c r="G125" s="223"/>
+      <c r="F125" s="220"/>
+      <c r="G125" s="221"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -17469,11 +17466,11 @@
       <c r="B127" s="165"/>
       <c r="C127" s="36"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="224" t="s">
+      <c r="E127" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="224"/>
-      <c r="G127" s="224"/>
+      <c r="F127" s="222"/>
+      <c r="G127" s="222"/>
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -17616,25 +17613,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -19728,12 +19725,12 @@
       <c r="B85" s="165"/>
       <c r="C85" s="36"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="221">
+      <c r="E85" s="219">
         <f>E81-G81</f>
         <v>0</v>
       </c>
-      <c r="F85" s="222"/>
-      <c r="G85" s="223"/>
+      <c r="F85" s="220"/>
+      <c r="G85" s="221"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -19749,11 +19746,11 @@
       <c r="B87" s="165"/>
       <c r="C87" s="36"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="224" t="s">
+      <c r="E87" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="224"/>
-      <c r="G87" s="224"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -19873,10 +19870,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87:G87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19895,25 +19892,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -19964,7 +19961,7 @@
         <v>51379</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" ref="H4:H101" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H109" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -21720,7 +21717,7 @@
         <v>44400</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" ref="B70:B101" si="2">B69+1</f>
+        <f t="shared" ref="B70:B109" si="2">B69+1</f>
         <v>2260</v>
       </c>
       <c r="C70" s="21"/>
@@ -21878,11 +21875,15 @@
       <c r="E75" s="20">
         <v>10689</v>
       </c>
-      <c r="F75" s="49"/>
-      <c r="G75" s="27"/>
+      <c r="F75" s="49">
+        <v>44411</v>
+      </c>
+      <c r="G75" s="27">
+        <v>10689</v>
+      </c>
       <c r="H75" s="28">
         <f t="shared" si="0"/>
-        <v>10689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -21952,10 +21953,10 @@
       <c r="E78" s="20">
         <v>45</v>
       </c>
-      <c r="F78" s="80">
+      <c r="F78" s="49">
         <v>44410</v>
       </c>
-      <c r="G78" s="81">
+      <c r="G78" s="27">
         <v>45</v>
       </c>
       <c r="H78" s="28">
@@ -22004,10 +22005,10 @@
       <c r="E80" s="20">
         <v>3881</v>
       </c>
-      <c r="F80" s="80">
+      <c r="F80" s="49">
         <v>44409</v>
       </c>
-      <c r="G80" s="81">
+      <c r="G80" s="27">
         <v>3881</v>
       </c>
       <c r="H80" s="28">
@@ -22126,11 +22127,15 @@
       <c r="E85" s="20">
         <v>1124</v>
       </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="27"/>
+      <c r="F85" s="49">
+        <v>44411</v>
+      </c>
+      <c r="G85" s="27">
+        <v>1124</v>
+      </c>
       <c r="H85" s="28">
         <f t="shared" si="0"/>
-        <v>1124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -22200,11 +22205,15 @@
       <c r="E88" s="20">
         <v>1006</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="27"/>
+      <c r="F88" s="49">
+        <v>44411</v>
+      </c>
+      <c r="G88" s="27">
+        <v>1006</v>
+      </c>
       <c r="H88" s="28">
         <f t="shared" si="0"/>
-        <v>1006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -22248,11 +22257,15 @@
       <c r="E90" s="27">
         <v>1528</v>
       </c>
-      <c r="F90" s="214"/>
-      <c r="G90" s="27"/>
+      <c r="F90" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G90" s="27">
+        <v>1528</v>
+      </c>
       <c r="H90" s="28">
         <f t="shared" si="0"/>
-        <v>1528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -22270,10 +22283,10 @@
       <c r="E91" s="27">
         <v>17819</v>
       </c>
-      <c r="F91" s="216">
+      <c r="F91" s="214">
         <v>44409</v>
       </c>
-      <c r="G91" s="81">
+      <c r="G91" s="27">
         <v>17819</v>
       </c>
       <c r="H91" s="28">
@@ -22296,30 +22309,36 @@
       <c r="E92" s="27">
         <v>1797</v>
       </c>
-      <c r="F92" s="214"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G92" s="27">
+        <v>1797</v>
+      </c>
       <c r="H92" s="28">
         <f t="shared" si="0"/>
-        <v>1797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="157"/>
+      <c r="A93" s="157">
+        <v>44409</v>
+      </c>
       <c r="B93" s="12">
         <f t="shared" si="2"/>
         <v>2283</v>
       </c>
       <c r="C93" s="213"/>
-      <c r="D93" s="215" t="s">
+      <c r="D93" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="81">
+      <c r="E93" s="27">
         <v>3896</v>
       </c>
-      <c r="F93" s="216">
+      <c r="F93" s="214">
         <v>44410</v>
       </c>
-      <c r="G93" s="81">
+      <c r="G93" s="27">
         <v>3896</v>
       </c>
       <c r="H93" s="28">
@@ -22328,238 +22347,330 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="157"/>
+      <c r="A94" s="157">
+        <v>44409</v>
+      </c>
       <c r="B94" s="12">
         <f t="shared" si="2"/>
         <v>2284</v>
       </c>
       <c r="C94" s="213"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="27"/>
+      <c r="D94" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="27">
+        <v>3504</v>
+      </c>
       <c r="F94" s="214"/>
       <c r="G94" s="27"/>
       <c r="H94" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="157"/>
+      <c r="A95" s="157">
+        <v>44409</v>
+      </c>
       <c r="B95" s="12">
         <f t="shared" si="2"/>
         <v>2285</v>
       </c>
       <c r="C95" s="213"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="214"/>
-      <c r="G95" s="27"/>
+      <c r="D95" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="27">
+        <v>48881</v>
+      </c>
+      <c r="F95" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G95" s="27">
+        <v>48881</v>
+      </c>
       <c r="H95" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="157"/>
+      <c r="A96" s="157">
+        <v>44409</v>
+      </c>
       <c r="B96" s="12">
         <f t="shared" si="2"/>
         <v>2286</v>
       </c>
       <c r="C96" s="213"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="214"/>
-      <c r="G96" s="27"/>
+      <c r="D96" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="27">
+        <v>46343</v>
+      </c>
+      <c r="F96" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G96" s="27">
+        <v>46343</v>
+      </c>
       <c r="H96" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="157"/>
+      <c r="A97" s="157">
+        <v>44410</v>
+      </c>
       <c r="B97" s="12">
         <f t="shared" si="2"/>
         <v>2287</v>
       </c>
       <c r="C97" s="213"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="27"/>
+      <c r="D97" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="27">
+        <v>4478</v>
+      </c>
       <c r="F97" s="214"/>
       <c r="G97" s="27"/>
       <c r="H97" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="157"/>
+      <c r="A98" s="157">
+        <v>44410</v>
+      </c>
       <c r="B98" s="12">
         <f t="shared" si="2"/>
         <v>2288</v>
       </c>
       <c r="C98" s="213"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="214"/>
-      <c r="G98" s="27"/>
+      <c r="D98" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="27">
+        <v>11125</v>
+      </c>
+      <c r="F98" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G98" s="27">
+        <v>11125</v>
+      </c>
       <c r="H98" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="157"/>
+      <c r="A99" s="157">
+        <v>44410</v>
+      </c>
       <c r="B99" s="12">
         <f t="shared" si="2"/>
         <v>2289</v>
       </c>
       <c r="C99" s="213"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="214"/>
-      <c r="G99" s="27"/>
+      <c r="D99" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="27">
+        <v>224</v>
+      </c>
+      <c r="F99" s="214">
+        <v>44411</v>
+      </c>
+      <c r="G99" s="27">
+        <v>224</v>
+      </c>
       <c r="H99" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="157"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="157">
+        <v>44411</v>
+      </c>
       <c r="B100" s="12">
         <f t="shared" si="2"/>
         <v>2290</v>
       </c>
       <c r="C100" s="213"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="119"/>
-      <c r="F100" s="172"/>
-      <c r="G100" s="119"/>
+      <c r="D100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="27">
+        <v>135</v>
+      </c>
+      <c r="F100" s="214"/>
+      <c r="G100" s="27"/>
       <c r="H100" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="157">
+        <v>44411</v>
+      </c>
       <c r="B101" s="12">
         <f t="shared" si="2"/>
         <v>2291</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="35">
-        <v>0</v>
-      </c>
-      <c r="F101" s="82"/>
-      <c r="G101" s="83"/>
+      <c r="C101" s="213"/>
+      <c r="D101" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="27">
+        <v>12505</v>
+      </c>
+      <c r="F101" s="214"/>
+      <c r="G101" s="27"/>
       <c r="H101" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="165"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="37">
-        <f>SUM(E4:E101)</f>
-        <v>1021663</v>
-      </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37">
-        <f>SUM(G4:G101)</f>
-        <v>997797</v>
-      </c>
-      <c r="H102" s="38">
-        <f>SUM(H4:H101)</f>
-        <v>23866</v>
-      </c>
-      <c r="I102" s="2"/>
+        <v>12505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="157">
+        <v>44411</v>
+      </c>
+      <c r="B102" s="12">
+        <f t="shared" si="2"/>
+        <v>2292</v>
+      </c>
+      <c r="C102" s="213"/>
+      <c r="D102" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="27">
+        <v>1434</v>
+      </c>
+      <c r="F102" s="214"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28">
+        <f t="shared" si="0"/>
+        <v>1434</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="165"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="165"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="86"/>
-      <c r="G104" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="40"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="165"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="165"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="221">
-        <f>E102-G102</f>
-        <v>23866</v>
-      </c>
-      <c r="F106" s="222"/>
-      <c r="G106" s="223"/>
-      <c r="I106" s="2"/>
+      <c r="A103" s="157"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="213"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="214"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="157"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="213"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="214"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="157"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="213"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="214"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="157"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="213"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="214"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="165"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="87"/>
-      <c r="I107" s="2"/>
+      <c r="A107" s="157"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="213"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="214"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="165"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="224" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="224"/>
-      <c r="G108" s="224"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="165"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="87"/>
+      <c r="A108" s="157"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="213"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="172"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="229"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="35">
+        <v>0</v>
+      </c>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="157"/>
-      <c r="B110" s="164"/>
-      <c r="C110" s="159"/>
-      <c r="D110" s="160"/>
-      <c r="E110" s="161"/>
-      <c r="F110" s="162"/>
-      <c r="G110" s="161"/>
+    <row r="110" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="165"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="37">
+        <f>SUM(E4:E109)</f>
+        <v>1150292</v>
+      </c>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37">
+        <f>SUM(G4:G109)</f>
+        <v>1120514</v>
+      </c>
+      <c r="H110" s="38">
+        <f>SUM(H4:H109)</f>
+        <v>29778</v>
+      </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -22569,36 +22680,46 @@
       <c r="E111" s="39"/>
       <c r="F111" s="86"/>
       <c r="G111" s="87"/>
+      <c r="H111" s="40"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="165"/>
       <c r="C112" s="36"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="39"/>
+      <c r="E112" s="41" t="s">
+        <v>8</v>
+      </c>
       <c r="F112" s="86"/>
-      <c r="G112" s="87"/>
+      <c r="G112" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="40"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="165"/>
       <c r="C113" s="36"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="39"/>
+      <c r="E113" s="41"/>
       <c r="F113" s="86"/>
-      <c r="G113" s="87"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="40"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B114" s="165"/>
       <c r="C114" s="36"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="87"/>
+      <c r="E114" s="219">
+        <f>E110-G110</f>
+        <v>29778</v>
+      </c>
+      <c r="F114" s="220"/>
+      <c r="G114" s="221"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="165"/>
       <c r="C115" s="36"/>
       <c r="D115" s="2"/>
@@ -22607,16 +22728,18 @@
       <c r="G115" s="87"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B116" s="165"/>
       <c r="C116" s="36"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="87"/>
+      <c r="E116" s="222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="222"/>
+      <c r="G116" s="222"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="165"/>
       <c r="C117" s="36"/>
       <c r="D117" s="2"/>
@@ -22625,16 +22748,17 @@
       <c r="G117" s="87"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="165"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="87"/>
+    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="157"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="159"/>
+      <c r="D118" s="160"/>
+      <c r="E118" s="161"/>
+      <c r="F118" s="162"/>
+      <c r="G118" s="161"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="165"/>
       <c r="C119" s="36"/>
       <c r="D119" s="2"/>
@@ -22643,12 +22767,84 @@
       <c r="G119" s="87"/>
       <c r="I119" s="2"/>
     </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="165"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="87"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="165"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="86"/>
+      <c r="G121" s="87"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="165"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="87"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="165"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="87"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="165"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="87"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="165"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="87"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="165"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="86"/>
+      <c r="G126" s="87"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="165"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="86"/>
+      <c r="G127" s="87"/>
+      <c r="I127" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E116:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22674,7 +22870,7 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -22695,19 +22891,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="225" t="s">
+      <c r="C1" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
       <c r="F1" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="225" t="s">
+      <c r="J1" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
